--- a/Documentation/3.1.xlsx
+++ b/Documentation/3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/frskia001_myuct_ac_za/Documents/Desktop/uct/3 year/frirst semester/EEE3088/EEE3088F-Project-CKR/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{3D5B2508-B71A-4F0B-93FE-5A8AB77FD11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEEB3EA-2BE6-4B42-89B6-9C85EB846BA3}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{3D5B2508-B71A-4F0B-93FE-5A8AB77FD11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5FCE94-73B2-4A75-93E0-853F410454F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66AB3355-29DB-4FE2-B0BC-2634E1B305AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Parks required</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>10 uf capitor</t>
+  </si>
+  <si>
+    <t>voltag reulater and ulvo</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/DiodesIncorporated-AP7365_33WG7/C150742</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/parts/componentSearch?searchTxt=LM2937</t>
   </si>
 </sst>
 </file>
@@ -178,12 +187,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -191,9 +194,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,137 +516,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47342A5-A6B7-496B-BA36-8F1528CF71C4}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="9" width="67.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>0.3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -647,8 +668,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{1F45D7CE-AC65-47F0-BF66-D93EC8460863}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{AD7CDE37-2037-46EB-A0E1-5CF0731F1AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>